--- a/biology/Botanique/Etlingera_hemisphaerica/Etlingera_hemisphaerica.xlsx
+++ b/biology/Botanique/Etlingera_hemisphaerica/Etlingera_hemisphaerica.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Etlingera hemisphaerica  est une espèce de plante herbacée vivace du genre Etlingera de la famille des Zingiberaceae, originaire de l'île de Java, mais largement naturalisée à Sumatra, aux Célèbes et en Malaisie péninsulaire.
 Ses fleurs et ses fruits sont acides et parfumés et accompagnent une grande variété de plats dans l'archipel Indonésien.
@@ -514,6 +526,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -540,6 +554,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -566,6 +582,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -591,7 +609,9 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Tiges et feuilles, Darmaga, Bogor.
@@ -627,9 +647,11 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Selon World Checklist of Selected Plant Families (WCSP)  (26 sept 2011)[1] :
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Selon World Checklist of Selected Plant Families (WCSP)  (26 sept 2011) :
 Alpinia hemisphaerica (Blume) D.Dietr., Syn. Pl. 1: 13 (1839).
 Amomum anthoidioides (Teijsm. &amp; Binn.) Koord., Meded. Lands Plantentuin 19: 318 (1898).
 Amomum eriocarpum (Kuntze) K.Schum., Bot. Jahrb. Syst. 27: 309 (1899).
